--- a/pred_ohlcv/54_21/2019-10-28 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 STRAT ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-3673.313743839995</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4107.513743839995</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4570.399543839995</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4664.615939869996</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5256.216939869995</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5256.216939869995</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5797.669439869996</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5375.154939869995</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5815.792839869995</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6642.813739869995</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-5260.508639869995</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-5259.508639869995</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5481.219039869995</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-5480.219039869995</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-7238.056339869995</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-7056.261639869995</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-5890.759139869994</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4649.184960130005</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>582.6341601300054</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>627.9404601300054</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1944.525460130006</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1759.474139869994</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-6599.633239869994</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-8624.623239869994</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-8390.623239869994</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-9181.377239869995</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-25154.29633986999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-17708.35863987</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-17924.40813987</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-39517.03383987</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-38844.03383987</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-40062.51023987</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-37828.97683987</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-41374.46443987</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-51460.58943987</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-50169.58013987</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-66633.78953987001</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-66230.77653987001</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-70342.09933987001</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-70727.71163987</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-70476.71163987</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-70426.71163987</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-88134.90223987</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-87552.48453987</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 STRAT ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-3673.313743839995</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4107.513743839995</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4570.399543839995</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4664.615939869996</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5256.216939869995</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5256.216939869995</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5797.669439869996</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5375.154939869995</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5815.792839869995</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6642.813739869995</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6049.850339869995</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-5260.508639869995</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-5259.508639869995</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5481.219039869995</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-5480.219039869995</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-7238.056339869995</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-7056.261639869995</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-5890.759139869994</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4649.184960130005</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>447.2676601300054</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>582.6341601300054</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>627.9404601300054</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>552.9404601300054</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5760.949160130006</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3640.091260130006</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1759.474139869994</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-5419.049239869994</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-6599.633239869994</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7087.515939869994</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-8624.623239869994</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-8390.623239869994</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-16597.35863987</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-17924.40813987</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-38844.03383987</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-34184.35443987</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-49632.88933986999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-33893.89563987</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-37828.97683987</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-41374.46443987</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-51460.58943987</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-50188.18213987</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-50169.58013987</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-49210.22383987</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-22449.47453987</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-40066.82823987001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-39821.80383987001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-39820.80383987001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-39830.80383987001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-47860.13123987001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-47860.13123987001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-50193.22933987001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-50144.73303987001</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-50304.71353987001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-59180.42313987001</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-59372.64143987001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-56935.40533987001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-57024.01623987001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-56997.90663987001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-58443.28533987001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-58443.28533987001</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-58443.28533987001</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-59437.32853987001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-56358.85333987001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-55538.85333987001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-55452.85333987001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-59361.08603987001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-64844.85883987001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-64235.53433987001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-64235.53433987001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-70476.71163987</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-70426.71163987</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-87628.57223987</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-88134.90223987</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-86366.54743987</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-87552.48453987</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-84606.45743986999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
